--- a/chapter5/Chapter5-cv-1a.xlsx
+++ b/chapter5/Chapter5-cv-1a.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="training_dataset" sheetId="1" r:id="rId1"/>
     <sheet name="testing_dataset" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">training_dataset!$M$5:$M$9</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">training_dataset!$L$20</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="30">
   <si>
     <t>Iris type</t>
   </si>
@@ -93,12 +112,36 @@
   <si>
     <t>difference=</t>
   </si>
+  <si>
+    <t>Numerical Classification</t>
+  </si>
+  <si>
+    <t>Type Classification</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>inter-group</t>
+  </si>
+  <si>
+    <t>intra-group</t>
+  </si>
+  <si>
+    <t>inter/intra</t>
+  </si>
+  <si>
+    <t>intra-group variance</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,32 +460,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +503,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -470,6 +515,9 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
       <c r="K1">
         <v>0</v>
       </c>
@@ -477,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -499,7 +547,7 @@
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G33" si="1">M$6*B2+M$7*C2+M$8*D2+M$9*E2+M$5</f>
-        <v>3.4712088888905202E-2</v>
+        <v>-0.54039713066267625</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H33" si="2">IF(G2&lt;M$12,L$1,IF(G2&lt;M$13,L$2,L$3))</f>
@@ -509,6 +557,10 @@
         <f>IF(A2=H2,0, 1)</f>
         <v>0</v>
       </c>
+      <c r="J2">
+        <f>IF(F2=K$1,(G2-K$12)^2,IF(F2=K$2, (G2-K$13)^2,(G2-K$14)^2))</f>
+        <v>2.2989551577489942E-2</v>
+      </c>
       <c r="K2">
         <v>1</v>
       </c>
@@ -516,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -538,7 +590,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>6.4290321122063565E-2</v>
+        <v>-0.60649923352421564</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
@@ -548,6 +600,10 @@
         <f t="shared" ref="I3:I66" si="3">IF(A3=H3,0, 1)</f>
         <v>0</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="4">IF(F3=K$1,(G3-K$12)^2,IF(F3=K$2, (G3-K$13)^2,(G3-K$14)^2))</f>
+        <v>7.313833688952753E-3</v>
+      </c>
       <c r="K3">
         <v>2</v>
       </c>
@@ -555,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -577,7 +633,7 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>2.4158094709930134E-2</v>
+        <v>-0.61271967667069949</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -587,11 +643,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>6.2885711290824433E-3</v>
+      </c>
       <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -613,7 +676,7 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>-5.263202315098392E-2</v>
+        <v>-0.96621158582531153</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -622,6 +685,10 @@
       <c r="I5">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>7.5180922530775268E-2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>13</v>
@@ -630,11 +697,13 @@
         <v>5</v>
       </c>
       <c r="M5">
-        <f>INDEX(LINEST(F$2:F$104,B$2:E$104,TRUE,TRUE),1,L5)</f>
+        <v>0.35469595554191019</v>
+      </c>
+      <c r="N5">
         <v>0.35469595974037849</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -656,7 +725,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>0.10445211484028477</v>
+        <v>-0.48987967317860831</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -665,6 +734,10 @@
       <c r="I6">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>4.0860787813811202E-2</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>14</v>
@@ -673,11 +746,13 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <f>INDEX(LINEST(F$2:F$104,B$2:E$104,TRUE,TRUE),1,L6)</f>
+        <v>-0.17559276759568909</v>
+      </c>
+      <c r="N6">
         <v>-0.17834689309947746</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -699,7 +774,7 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>-0.13578587130280384</v>
+        <v>-0.959250217574106</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -708,6 +783,10 @@
       <c r="I7">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>7.1411888598363157E-2</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -716,11 +795,13 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <f>INDEX(LINEST(F$2:F$104,B$2:E$104,TRUE,TRUE),1,L7)</f>
+        <v>-0.26050220106527561</v>
+      </c>
+      <c r="N7">
         <v>-5.4976297862147153E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -742,7 +823,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>-3.1750396537627568E-4</v>
+        <v>-0.75754982991747299</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -751,6 +832,10 @@
       <c r="I8">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>4.2941339433941895E-3</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>16</v>
@@ -759,11 +844,13 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <f>INDEX(LINEST(F$2:F$104,B$2:E$104,TRUE,TRUE),1,L8)</f>
+        <v>0.40946667830697109</v>
+      </c>
+      <c r="N8">
         <v>0.26764673376784887</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -785,7 +872,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>0.17194504677291611</v>
+        <v>-0.43941494314596002</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -794,6 +881,10 @@
       <c r="I9">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>6.38094098296835E-2</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -802,11 +893,13 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <f>INDEX(LINEST(F$2:F$104,B$2:E$104,TRUE,TRUE),1,L9)</f>
+        <v>0.52995225288740577</v>
+      </c>
+      <c r="N9">
         <v>0.5799219454580764</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -828,7 +921,7 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>6.3696745650739794E-3</v>
+        <v>-0.65303155448132899</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -838,8 +931,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1.5201135593832661E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -861,7 +958,7 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>-7.678417358674583E-2</v>
+        <v>-0.64607018623012347</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -870,6 +967,10 @@
       <c r="I11">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>2.1114026811902618E-3</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>18</v>
@@ -881,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -903,7 +1004,7 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>7.3976525334988885E-3</v>
+        <v>-0.60739401859990094</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -912,10 +1013,14 @@
       <c r="I12">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>7.1615885814768319E-3</v>
       </c>
       <c r="K12">
         <f>AVERAGEIFS(G$2:G$104,F$2:F$104,K1)</f>
-        <v>-2.2849939286528786E-2</v>
+        <v>-0.69202018820172584</v>
       </c>
       <c r="L12">
         <f>COUNTIFS(F$2:F$151,K1)</f>
@@ -923,10 +1028,10 @@
       </c>
       <c r="M12">
         <f>(K12*L12+K13*L13)/(L12+L13)</f>
-        <v>0.55735098624313895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.13776602347465594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -948,7 +1053,7 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>5.7150206425536365E-2</v>
+        <v>-0.70138931935257287</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -957,10 +1062,14 @@
       <c r="I13">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>8.7780618521772228E-5</v>
       </c>
       <c r="K13">
         <f>AVERAGEIFS(G$2:G$104,F$2:F$104,K2)</f>
-        <v>1.1727156042291502</v>
+        <v>1.01784230858597</v>
       </c>
       <c r="L13">
         <f>COUNTIFS(F$2:F$151,K2)</f>
@@ -968,10 +1077,10 @@
       </c>
       <c r="M13">
         <f>(K13*L13+K14*L14)/(L13+L14)</f>
-        <v>1.5264668805151247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4247463506087277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1102,7 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>-8.5164394674961397E-2</v>
+        <v>-0.64340735719472431</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -1002,17 +1111,21 @@
       <c r="I14">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2.3632073385152896E-3</v>
       </c>
       <c r="K14">
         <f>AVERAGEIFS(G$2:G$104,F$2:F$104,K3)</f>
-        <v>1.8600037981561863</v>
+        <v>1.8083987330873279</v>
       </c>
       <c r="L14">
         <f>COUNTIFS(F$2:F$151,K3)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1147,7 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>-2.5432888406296705E-2</v>
+        <v>-0.72034583742858738</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -1044,8 +1157,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>8.0234240412320164E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1184,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>-5.3796293071493195E-2</v>
+        <v>-0.78101215481349229</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
@@ -1076,6 +1193,10 @@
       <c r="I16">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>7.9195701214297542E-3</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -1085,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1228,7 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>-0.10186009288812653</v>
+        <v>-0.87538157034879949</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
@@ -1117,8 +1238,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>3.3621396462885179E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1265,7 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>-0.15861218104224584</v>
+        <v>-1.0259297105012966</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
@@ -1150,8 +1275,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.11149556908232751</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <f>(K12-AVERAGE(K12:K14))^2+(K13-AVERAGE(K12:K14))^2+(K14-AVERAGE(K12:K14))^2</f>
+        <v>3.2669013333939132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1173,7 +1309,7 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>-3.1545025134398885E-2</v>
+        <v>-0.76959838737551634</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
@@ -1183,8 +1319,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>6.0183769870483083E-3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <f>SUM(J2:J104)</f>
+        <v>3.3667475187665272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1353,7 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>-6.6140156620778157E-2</v>
+        <v>-0.78183200606428693</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -1216,8 +1363,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>8.0661626277778488E-3</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <f>L18/L19</f>
+        <v>0.97034342943269036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1397,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>-4.9908487081603115E-2</v>
+        <v>-0.86517599067536111</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
@@ -1249,8 +1407,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2.9982931930288594E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1434,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>-0.10071000928343071</v>
+        <v>-0.76485011937036962</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
@@ -1282,8 +1444,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>5.3041988740293909E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1471,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>3.081999441665384E-2</v>
+        <v>-0.53741690661724317</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
@@ -1315,8 +1481,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>2.3902174676690837E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1508,7 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>-8.3425082952104324E-2</v>
+        <v>-0.77334106271732805</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="2"/>
@@ -1348,8 +1518,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>6.6130846319823215E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1545,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>-4.5006889439101527E-2</v>
+        <v>-0.60797140866555255</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="2"/>
@@ -1381,8 +1555,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>7.0641973415202621E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1582,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>4.4716320089258632E-2</v>
+        <v>-0.49412480476118031</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
@@ -1414,8 +1592,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>3.9162582787080541E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1619,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="1"/>
-        <v>-5.6085367772971517E-2</v>
+        <v>-0.67712866939741589</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
@@ -1447,8 +1629,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>2.2175733229911669E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1656,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>-0.11747045145986207</v>
+        <v>-0.75952446129957085</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
@@ -1480,8 +1666,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>4.556826886468442E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1693,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" si="1"/>
-        <v>1.7401883733852375E-2</v>
+        <v>-0.56112169269840506</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
@@ -1513,8 +1703,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>1.713441612503289E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1730,7 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>1.6302357776609433E-2</v>
+        <v>-0.61322213291146022</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
@@ -1546,8 +1740,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>6.209133517527758E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1767,7 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" si="1"/>
-        <v>-9.3429314152457976E-2</v>
+        <v>-0.81961338861882416</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
@@ -1579,8 +1777,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1.628002479267782E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1804,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>-3.7201710153233869E-2</v>
+        <v>-0.66589996319016698</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
@@ -1612,8 +1814,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>6.8226615465446518E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1841,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>0.10447310518164993</v>
+        <v>-0.5418477796123562</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
@@ -1645,8 +1851,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>2.2551752301532581E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1663,23 +1873,27 @@
         <v>0.2</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="4">IF(A34=L$1,K$1,IF(A34=$L$2,K$2,K$3))</f>
+        <f t="shared" ref="F34:F65" si="5">IF(A34=L$1,K$1,IF(A34=$L$2,K$2,K$3))</f>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="5">M$6*B34+M$7*C34+M$8*D34+M$9*E34+M$5</f>
-        <v>4.3092309977120768E-2</v>
+        <f t="shared" ref="G34:G65" si="6">M$6*B34+M$7*C34+M$8*D34+M$9*E34+M$5</f>
+        <v>-0.54305995969807563</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:H65" si="6">IF(G34&lt;M$12,L$1,IF(G34&lt;M$13,L$2,L$3))</f>
+        <f t="shared" ref="H34:H65" si="7">IF(G34&lt;M$12,L$1,IF(G34&lt;M$13,L$2,L$3))</f>
         <v>Iris-setosa</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>2.2189149675859682E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1696,23 +1910,27 @@
         <v>0.2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="5"/>
-        <v>2.5807383645794491E-2</v>
+        <f t="shared" si="6"/>
+        <v>-0.53456901635111675</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-setosa</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>2.4790871517130036E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1729,23 +1947,27 @@
         <v>0.2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="5"/>
-        <v>-0.18152851356868016</v>
+        <f t="shared" si="6"/>
+        <v>-0.88452483758630085</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-setosa</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>3.7058040034678157E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1762,23 +1984,27 @@
         <v>1.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2811056847115931</v>
+        <f t="shared" si="6"/>
+        <v>1.162411902730335</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>2.0900367551066411E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1795,23 +2021,27 @@
         <v>1.4</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1322654758564559</v>
+        <f t="shared" si="6"/>
+        <v>0.91425412794147976</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>1.0730511169235549E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1828,23 +2058,27 @@
         <v>1.3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1021122018209495</v>
+        <f t="shared" si="6"/>
+        <v>0.92509050531380388</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>8.6028970102386103E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1861,23 +2095,27 @@
         <v>1.3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1500101423794111</v>
+        <f t="shared" si="6"/>
+        <v>1.1398977705432356</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>1.4897535793601504E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1894,23 +2132,27 @@
         <v>1.4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2933527214483334</v>
+        <f t="shared" si="6"/>
+        <v>1.1275533442668146</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>1.2036511350163561E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1927,23 +2169,27 @@
         <v>1.5</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2699766487302702</v>
+        <f t="shared" si="6"/>
+        <v>1.0348236312330965</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>2.8836531884581082E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1960,23 +2206,27 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="5"/>
-        <v>0.98271393324688616</v>
+        <f t="shared" si="6"/>
+        <v>0.8416675945566563</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>3.1037529863310473E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1993,23 +2243,27 @@
         <v>1.2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2330461733773208</v>
+        <f t="shared" si="6"/>
+        <v>1.1492260990114636</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>1.7261700386570007E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2026,23 +2280,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="5"/>
-        <v>0.87223707177493737</v>
+        <f t="shared" si="6"/>
+        <v>0.61926485123776653</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.15886398950615896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2059,23 +2317,27 @@
         <v>1.5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2884116586662924</v>
+        <f t="shared" si="6"/>
+        <v>1.1368641388645679</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>1.4166196082867368E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2092,23 +2354,27 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="5"/>
-        <v>0.96865174831610923</v>
+        <f t="shared" si="6"/>
+        <v>0.91881334239471801</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>9.806736144908134E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2125,23 +2391,27 @@
         <v>1.5</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3111436571363801</v>
+        <f t="shared" si="6"/>
+        <v>1.3304443858175099</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>9.7720058689473616E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2158,23 +2428,27 @@
         <v>1.3</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0758720125990597</v>
+        <f t="shared" si="6"/>
+        <v>0.8809785522069471</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>1.8731687810176537E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2191,23 +2465,27 @@
         <v>1.5</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4494230677869904</v>
+        <f t="shared" si="6"/>
+        <v>1.2625168390418406</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>5.9865625853800758E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2224,23 +2502,27 @@
         <v>1.4</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1585056650783456</v>
+        <f t="shared" si="6"/>
+        <v>0.95836608104833676</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>3.5374216421083255E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2257,23 +2539,27 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="5"/>
-        <v>0.93075803895800113</v>
+        <f t="shared" si="6"/>
+        <v>0.7502784030667824</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>7.1590443536680759E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2290,23 +2576,27 @@
         <v>1.3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0574370026630375</v>
+        <f t="shared" si="6"/>
+        <v>0.77893804457547544</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>5.7075247362396095E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2323,23 +2613,27 @@
         <v>1.4</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2231387689895119</v>
+        <f t="shared" si="6"/>
+        <v>1.1386321828242818</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1.4590193718507175E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2356,23 +2650,27 @@
         <v>1.6</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="5"/>
-        <v>1.5626444556696857</v>
+        <f t="shared" si="6"/>
+        <v>1.5339870710769334</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>0.26640541584685301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2389,23 +2687,27 @@
         <v>1.6</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3982080745586258</v>
+        <f t="shared" si="6"/>
+        <v>1.1059555233470579</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>7.7639386155336004E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2422,23 +2724,27 @@
         <v>1.5</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2705516905326182</v>
+        <f t="shared" si="6"/>
+        <v>1.0900893567223116</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>5.2196359644148503E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2455,23 +2761,27 @@
         <v>1.3</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1845294373946105</v>
+        <f t="shared" si="6"/>
+        <v>1.0644848730839431</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>2.1755288229475811E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2488,23 +2798,27 @@
         <v>1.2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1416483960893695</v>
+        <f t="shared" si="6"/>
+        <v>0.92801332940482095</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>8.069245500727313E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2521,23 +2835,27 @@
         <v>1.3</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1377815804408449</v>
+        <f t="shared" si="6"/>
+        <v>0.96020905883294172</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>3.3215914770949369E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2554,23 +2872,27 @@
         <v>1.3</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1467368433314087</v>
+        <f t="shared" si="6"/>
+        <v>1.0128119552867576</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>2.530445431489728E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2587,23 +2909,27 @@
         <v>1.4</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3206671578037399</v>
+        <f t="shared" si="6"/>
+        <v>1.1945502322040396</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>3.1225690269409495E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2620,23 +2946,27 @@
         <v>1.2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2052325316907462</v>
+        <f t="shared" si="6"/>
+        <v>1.1146100017330862</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>9.363986437014438E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -2653,23 +2983,27 @@
         <v>1.5</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3429646949059255</v>
+        <f t="shared" si="6"/>
+        <v>1.1832113985909549</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>2.7346935929076797E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2686,23 +3020,27 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="5"/>
-        <v>0.840510345274746</v>
+        <f t="shared" si="6"/>
+        <v>0.63959708443857033</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>0.14306944959031664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2719,23 +3057,27 @@
         <v>1.2</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="7">IF(A66=L$1,K$1,IF(A66=$L$2,K$2,K$3))</f>
+        <f t="shared" ref="F66:F97" si="8">IF(A66=L$1,K$1,IF(A66=$L$2,K$2,K$3))</f>
         <v>1</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:G97" si="8">M$6*B66+M$7*C66+M$8*D66+M$9*E66+M$5</f>
-        <v>1.0724834119403379</v>
+        <f t="shared" ref="G66:G97" si="9">M$6*B66+M$7*C66+M$8*D66+M$9*E66+M$5</f>
+        <v>0.93276159740996811</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H97" si="9">IF(G66&lt;M$12,L$1,IF(G66&lt;M$13,L$2,L$3))</f>
+        <f t="shared" ref="H66:H97" si="10">IF(G66&lt;M$12,L$1,IF(G66&lt;M$13,L$2,L$3))</f>
         <v>Iris-versicolor</v>
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>7.2387274142142561E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2752,23 +3094,27 @@
         <v>1.3</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="8"/>
-        <v>1.1739754432156353</v>
+        <f t="shared" si="9"/>
+        <v>0.99216232707591967</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I104" si="10">IF(A67=H67,0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I67:I104" si="11">IF(A67=H67,0, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J104" si="12">IF(F67=K$1,(G67-K$12)^2,IF(F67=K$2, (G67-K$13)^2,(G67-K$14)^2))</f>
+        <v>6.5946145035652808E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2785,23 +3131,27 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="8"/>
-        <v>0.93080859660545445</v>
+        <f t="shared" si="9"/>
+        <v>0.80870941383215755</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="12"/>
+        <v>4.3736567668109204E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2818,23 +3168,27 @@
         <v>1.3</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="8"/>
-        <v>1.1907106065683402</v>
+        <f t="shared" si="9"/>
+        <v>0.95762116362243321</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="12"/>
+        <v>3.6265863007193151E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2851,23 +3205,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="8"/>
-        <v>1.868862376761625</v>
+        <f t="shared" si="9"/>
+        <v>1.7448347182922495</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="12"/>
+        <v>4.0403839768689519E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2884,23 +3242,27 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="8"/>
-        <v>1.8224521543632171</v>
+        <f t="shared" si="9"/>
+        <v>1.8097995748929603</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="12"/>
+        <v>1.962357764407387E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2917,23 +3279,27 @@
         <v>2.4</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="8"/>
-        <v>2.0617016276774205</v>
+        <f t="shared" si="9"/>
+        <v>1.9670172067994685</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="12"/>
+        <v>2.5159820202769023E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2950,23 +3316,27 @@
         <v>1.8</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6948648027828372</v>
+        <f t="shared" si="9"/>
+        <v>1.6378171488597757</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="12"/>
+        <v>2.9098076877581487E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2983,23 +3353,27 @@
         <v>2.1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="8"/>
-        <v>1.88505206561807</v>
+        <f t="shared" si="9"/>
+        <v>1.7654269465486712</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="12"/>
+        <v>1.8465744383238808E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3016,23 +3390,27 @@
         <v>1.8</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="8"/>
-        <v>1.562115683032429</v>
+        <f t="shared" si="9"/>
+        <v>1.4559687445366578</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="12"/>
+        <v>0.12420689682982546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3049,23 +3427,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9725324696100435</v>
+        <f t="shared" si="9"/>
+        <v>1.9604044348180594</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="12"/>
+        <v>2.3105733358652101E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3082,23 +3464,27 @@
         <v>2.1</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7701881928250629</v>
+        <f t="shared" si="9"/>
+        <v>1.6595688297504974</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="12"/>
+        <v>2.2150340127250326E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3115,23 +3501,27 @@
         <v>1.8</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7668544382961557</v>
+        <f t="shared" si="9"/>
+        <v>1.8509664975353293</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="12"/>
+        <v>1.8120145701005291E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3148,23 +3538,27 @@
         <v>1.9</v>
       </c>
       <c r="F79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7188116288208872</v>
+        <f t="shared" si="9"/>
+        <v>1.7046289755662736</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="12"/>
+        <v>1.0768162575978412E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3181,23 +3575,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9480315921110103</v>
+        <f t="shared" si="9"/>
+        <v>1.786358776188598</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="12"/>
+        <v>4.8575970009787398E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3214,23 +3612,27 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="8"/>
-        <v>1.8118728813605158</v>
+        <f t="shared" si="9"/>
+        <v>1.7082615235022498</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="12"/>
+        <v>1.0027460743485858E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3247,23 +3649,27 @@
         <v>1.8</v>
       </c>
       <c r="F82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7027458185398845</v>
+        <f t="shared" si="9"/>
+        <v>1.6675351104832232</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="12"/>
+        <v>1.9842560173151631E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3280,23 +3686,27 @@
         <v>1.9</v>
       </c>
       <c r="F83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7540323597570671</v>
+        <f t="shared" si="9"/>
+        <v>1.8305593305096335</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="12"/>
+        <v>4.9109207811349684E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3313,23 +3723,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="8"/>
-        <v>2.0372808751319287</v>
+        <f t="shared" si="9"/>
+        <v>1.9618016761345052</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="12"/>
+        <v>2.3532462935535514E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3346,23 +3760,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="8"/>
-        <v>2.0093661181504476</v>
+        <f t="shared" si="9"/>
+        <v>1.8103235573253782</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="12"/>
+        <v>3.7049483473858921E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3379,23 +3797,27 @@
         <v>2.1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9670712111554685</v>
+        <f t="shared" si="9"/>
+        <v>2.0540641265084076</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="12"/>
+        <v>6.0351485524733885E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3412,23 +3834,27 @@
         <v>1.7</v>
       </c>
       <c r="F87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6573297183214517</v>
+        <f t="shared" si="9"/>
+        <v>1.5865547739498043</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="12"/>
+        <v>4.9214742205811256E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3445,23 +3871,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="8"/>
-        <v>2.1477139829819762</v>
+        <f t="shared" si="9"/>
+        <v>2.3695361842445211</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="12"/>
+        <v>0.31487523909119136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3478,23 +3908,27 @@
         <v>1.5</v>
       </c>
       <c r="F89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="8"/>
-        <v>1.4505984302154131</v>
+        <f t="shared" si="9"/>
+        <v>1.4022637954029586</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-versicolor</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <f t="shared" si="12"/>
+        <v>0.1649455876078865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3511,23 +3945,27 @@
         <v>1.4</v>
       </c>
       <c r="F90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="8"/>
-        <v>1.5631985071306682</v>
+        <f t="shared" si="9"/>
+        <v>1.6412209029998961</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="12"/>
+        <v>2.7948426872742221E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3544,23 +3982,27 @@
         <v>2.4</v>
       </c>
       <c r="F91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="8"/>
-        <v>2.1030529701398772</v>
+        <f t="shared" si="9"/>
+        <v>1.9276528415159437</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>1.4221542377104062E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3577,23 +4019,27 @@
         <v>1.8</v>
       </c>
       <c r="F92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7121497291141636</v>
+        <f t="shared" si="9"/>
+        <v>1.629326205512817</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="12"/>
+        <v>3.2066970131923951E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3610,23 +4056,27 @@
         <v>1.8</v>
       </c>
       <c r="F93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7422382591864036</v>
+        <f t="shared" si="9"/>
+        <v>1.8557896993653669</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="12"/>
+        <v>2.245903684766226E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3643,23 +4093,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="8"/>
-        <v>1.9313975440532114</v>
+        <f t="shared" si="9"/>
+        <v>1.9377619611728338</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="12"/>
+        <v>1.673484478070263E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3676,23 +4130,27 @@
         <v>2.4</v>
       </c>
       <c r="F95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="8"/>
-        <v>2.033363501835951</v>
+        <f t="shared" si="9"/>
+        <v>1.9355663947972506</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="12"/>
+        <v>1.6171614184769329E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3709,23 +4167,27 @@
         <v>2.5</v>
       </c>
       <c r="F96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="8"/>
-        <v>2.2686536211714463</v>
+        <f t="shared" si="9"/>
+        <v>2.1704849582340002</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="12"/>
+        <v>0.13110643444096667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3742,23 +4204,27 @@
         <v>1.8</v>
       </c>
       <c r="F97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="8"/>
-        <v>1.7578486177581389</v>
+        <f t="shared" si="9"/>
+        <v>1.739932590316138</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Iris-virginica</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="12"/>
+        <v>4.6876127059649582E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3775,23 +4241,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F104" si="11">IF(A98=L$1,K$1,IF(A98=$L$2,K$2,K$3))</f>
+        <f t="shared" ref="F98:F104" si="13">IF(A98=L$1,K$1,IF(A98=$L$2,K$2,K$3))</f>
         <v>2</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" ref="G98:G104" si="12">M$6*B98+M$7*C98+M$8*D98+M$9*E98+M$5</f>
-        <v>2.0071276010964225</v>
+        <f t="shared" ref="G98:G104" si="14">M$6*B98+M$7*C98+M$8*D98+M$9*E98+M$5</f>
+        <v>1.9726380535068293</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" ref="H98:H104" si="13">IF(G98&lt;M$12,L$1,IF(G98&lt;M$13,L$2,L$3))</f>
+        <f t="shared" ref="H98:H104" si="15">IF(G98&lt;M$12,L$1,IF(G98&lt;M$13,L$2,L$3))</f>
         <v>Iris-virginica</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="12"/>
+        <v>2.6974554371859649E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3808,23 +4278,27 @@
         <v>2.5</v>
       </c>
       <c r="F99">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" si="14"/>
+        <v>1.9752474749089943</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="12"/>
-        <v>2.1332568018228368</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.7838502647473097E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3841,23 +4315,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F100">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="14"/>
+        <v>1.9220449820160566</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="12"/>
-        <v>2.0295952859391417</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2915469895570559E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3874,23 +4352,27 @@
         <v>1.8</v>
       </c>
       <c r="F101">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G101" s="4">
+        <f t="shared" si="14"/>
+        <v>1.5054063557143136</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="12"/>
-        <v>1.5715954300778878</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.1804380746151118E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3907,23 +4389,27 @@
         <v>1.8</v>
       </c>
       <c r="F102">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G102" s="4">
+        <f t="shared" si="14"/>
+        <v>1.4623742489138687</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="12"/>
-        <v>1.6056155197619189</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.11973294364750853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3940,23 +4426,27 @@
         <v>2.1</v>
       </c>
       <c r="F103">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="14"/>
+        <v>1.9074092095293187</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="12"/>
-        <v>1.9145402750642357</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.8030744452700137E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3973,20 +4463,24 @@
         <v>2.5</v>
       </c>
       <c r="F104">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="14"/>
+        <v>1.9774078477036334</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="15"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="12"/>
-        <v>2.1170208438013005</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="13"/>
-        <v>Iris-virginica</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.8564080823387496E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3998,24 +4492,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,8 +4525,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4048,8 +4557,26 @@
       <c r="E2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>M$6*B2+M$7*C2+M$8*D2+M$9*E2+M$5</f>
+        <v>-0.54363734976372724</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(G2&lt;M$12,L$1,IF(G2&lt;M$13,L$2,L$3))</f>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I2">
+        <f>IF(A2=H2,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4065,8 +4592,26 @@
       <c r="E3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="0">M$6*B3+M$7*C3+M$8*D3+M$9*E3+M$5</f>
+        <v>-0.74995367164620008</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H48" si="1">IF(G3&lt;M$12,L$1,IF(G3&lt;M$13,L$2,L$3))</f>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I48" si="2">IF(A3=H3,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4082,8 +4627,26 @@
       <c r="E4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.64607018623012347</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4099,8 +4662,32 @@
       <c r="E5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-0.74373322849971557</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0.35469595554191019</v>
+      </c>
+      <c r="N5">
+        <v>0.35469595974037849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4116,8 +4703,32 @@
       <c r="E6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.54076793330594408</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>-0.17559276759568909</v>
+      </c>
+      <c r="N6">
+        <v>-0.17834689309947746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4133,8 +4744,32 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.70368134574470398</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>-0.26050220106527561</v>
+      </c>
+      <c r="N7">
+        <v>-5.4976297862147153E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4150,8 +4785,32 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.68878489802053444</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.40946667830697109</v>
+      </c>
+      <c r="N8">
+        <v>0.26764673376784887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4167,8 +4826,32 @@
       <c r="E9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.67845097688897082</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.52995225288740577</v>
+      </c>
+      <c r="N9">
+        <v>0.5799219454580764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4184,8 +4867,20 @@
       <c r="E10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-1.1084004362283424</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4201,8 +4896,29 @@
       <c r="E11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.67850438452220518</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -4218,8 +4934,29 @@
       <c r="E12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.70634417478010336</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-2.2849939286528786E-2</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>0.55735098624313895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4235,8 +4972,29 @@
       <c r="E13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.4619075491414027</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1.1727156042291502</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>1.5264668805151247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4252,8 +5010,26 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-0.64607018623012347</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1.8600037981561863</v>
+      </c>
+      <c r="L14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4269,8 +5045,20 @@
       <c r="E15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.34333420342354043</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4286,8 +5074,27 @@
       <c r="E16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-0.83717266537839308</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-setosa</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <f>SUM(I2:I48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4303,8 +5110,20 @@
       <c r="E17">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.1559489983987083</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4320,8 +5139,20 @@
       <c r="E18">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.1612212488362728</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4337,8 +5168,20 @@
       <c r="E19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.0518804517519049</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4354,8 +5197,20 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.89585347373945923</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4371,8 +5226,20 @@
       <c r="E21">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.95786362480757647</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4388,8 +5255,20 @@
       <c r="E22">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.86576470947274342</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4405,8 +5284,20 @@
       <c r="E23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.3985211200611469</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -4422,8 +5313,20 @@
       <c r="E24">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.3449700308984114</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4439,8 +5342,20 @@
       <c r="E25">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.90265130695159534</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4456,8 +5371,20 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.75876934641374127</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4473,8 +5400,20 @@
       <c r="E27">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1.0070587748000892</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4490,8 +5429,20 @@
       <c r="E28">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1.1165853132969983</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4507,8 +5458,20 @@
       <c r="E29">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1.0771108206076381</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4524,8 +5487,20 @@
       <c r="E30">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1.227398285522703</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4541,8 +5516,20 @@
       <c r="E31">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.89998847791619596</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4558,8 +5545,20 @@
       <c r="E32">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.404445694389254</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -4575,8 +5574,20 @@
       <c r="E33">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.0767184917727133</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4592,8 +5603,20 @@
       <c r="E34">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.862349063713542</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4609,8 +5632,20 @@
       <c r="E35">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.6514486890468061</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4626,8 +5661,20 @@
       <c r="E36">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>1.7280913004622929</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4643,8 +5690,20 @@
       <c r="E37">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.5317517644574035</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4660,8 +5719,20 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.6580959744273462</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4677,8 +5748,20 @@
       <c r="E39">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.7280913004622929</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -4694,8 +5777,20 @@
       <c r="E40">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>1.8552338354913727</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -4711,8 +5806,20 @@
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>1.5279204879014132</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -4728,8 +5835,20 @@
       <c r="E42">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1.744124994447291</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4745,8 +5864,20 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2.0765567325038505</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4762,8 +5893,20 @@
       <c r="E44">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1.5793861380944008</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -4779,8 +5922,20 @@
       <c r="E45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1.6209675959451657</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4796,8 +5951,20 @@
       <c r="E46">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1.5702962784901331</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4813,8 +5980,20 @@
       <c r="E47">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1.4389868578427403</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-versicolor</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -4829,6 +6008,18 @@
       </c>
       <c r="E48">
         <v>2.2999999999999998</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1.6427192768358867</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>Iris-virginica</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
